--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B34" s="65">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B65" s="65">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B66" s="65">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B92" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B96" s="65">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B97" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
